--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_12_4.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_12_4.xlsx
@@ -522,657 +522,657 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9999912714394489</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9989307890230983</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999361650623706</v>
+        <v>0.9999999000003338</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999985100163312</v>
+        <v>0.9999985920531838</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9999797103893454</v>
+        <v>0.9999990556541269</v>
       </c>
       <c r="G2" t="n">
-        <v>8.147728134913951e-06</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0009980615140001263</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I2" t="n">
-        <v>3.628292477381828e-05</v>
+        <v>3.878798785116622e-08</v>
       </c>
       <c r="J2" t="n">
-        <v>1.317372474186313e-06</v>
+        <v>1.090487133965852e-06</v>
       </c>
       <c r="K2" t="n">
-        <v>1.88001486240023e-05</v>
+        <v>5.646375609085093e-07</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0002465606384010249</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M2" t="n">
-        <v>0.002854422557175786</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000041897090645</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O2" t="n">
-        <v>0.00297594123490403</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P2" t="n">
-        <v>81.43554285204716</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q2" t="n">
-        <v>116.782941773225</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_12_4_1</t>
+          <t>model_12_4_22</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9999888059136531</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9989173212817231</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999074465650495</v>
+        <v>0.9999999000003338</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999981391689031</v>
+        <v>0.9999985920531838</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9999707252411704</v>
+        <v>0.9999990556541269</v>
       </c>
       <c r="G3" t="n">
-        <v>1.044918824117756e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H3" t="n">
-        <v>0.00101063305940832</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I3" t="n">
-        <v>5.260613454908692e-05</v>
+        <v>3.878798785116622e-08</v>
       </c>
       <c r="J3" t="n">
-        <v>1.645258077334131e-06</v>
+        <v>1.090487133965852e-06</v>
       </c>
       <c r="K3" t="n">
-        <v>2.712569631321053e-05</v>
+        <v>5.646375609085093e-07</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0002642750458366202</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M3" t="n">
-        <v>0.00323252041620429</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000053731614465</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O3" t="n">
-        <v>0.003370135502561845</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P3" t="n">
-        <v>80.93797252568163</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.2853714468594</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_12_4_2</t>
+          <t>model_12_4_21</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9999860813020315</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C4" t="n">
-        <v>0.998904733637907</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9998767926754505</v>
+        <v>0.9999999000003338</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999977108642588</v>
+        <v>0.9999985920531838</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9999611190782425</v>
+        <v>0.9999990556541269</v>
       </c>
       <c r="G4" t="n">
-        <v>1.299249359339269e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H4" t="n">
-        <v>0.001022383072376916</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I4" t="n">
-        <v>7.002939540980152e-05</v>
+        <v>3.878798785116622e-08</v>
       </c>
       <c r="J4" t="n">
-        <v>2.023944609746976e-06</v>
+        <v>1.090487133965852e-06</v>
       </c>
       <c r="K4" t="n">
-        <v>3.602667000977424e-05</v>
+        <v>5.646375609085093e-07</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0002797656839786635</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M4" t="n">
-        <v>0.003604510173850629</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000066809750249</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O4" t="n">
-        <v>0.003757961634316143</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P4" t="n">
-        <v>80.50227756632873</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q4" t="n">
-        <v>115.8496764875065</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_12_4_3</t>
+          <t>model_12_4_20</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9999831355098047</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9988926342890968</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9998444561156151</v>
+        <v>0.9999999000003338</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999972421087957</v>
+        <v>0.9999985920531838</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9999509775263985</v>
+        <v>0.9999990556541269</v>
       </c>
       <c r="G5" t="n">
-        <v>1.57422613317337e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H5" t="n">
-        <v>0.001033677283391205</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I5" t="n">
-        <v>8.840906352763015e-05</v>
+        <v>3.878798785116622e-08</v>
       </c>
       <c r="J5" t="n">
-        <v>2.43839582633037e-06</v>
+        <v>1.090487133965852e-06</v>
       </c>
       <c r="K5" t="n">
-        <v>4.542372967698026e-05</v>
+        <v>5.646375609085093e-07</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0002938690979773279</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M5" t="n">
-        <v>0.003967651866247051</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N5" t="n">
-        <v>1.000080949552938</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O5" t="n">
-        <v>0.004136563020364814</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P5" t="n">
-        <v>80.11832331491713</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q5" t="n">
-        <v>115.4657222360949</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_12_4_4</t>
+          <t>model_12_4_19</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9999801763203485</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C6" t="n">
-        <v>0.998881644520779</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9998124348995047</v>
+        <v>0.9999999000003338</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999967869970955</v>
+        <v>0.9999985920531838</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9999409392027013</v>
+        <v>0.9999990556541269</v>
       </c>
       <c r="G6" t="n">
-        <v>1.850453479566372e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H6" t="n">
-        <v>0.001043935749720897</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0001066094944898933</v>
+        <v>3.878798785116622e-08</v>
       </c>
       <c r="J6" t="n">
-        <v>2.840783878721304e-06</v>
+        <v>1.090487133965852e-06</v>
       </c>
       <c r="K6" t="n">
-        <v>5.472513918430732e-05</v>
+        <v>5.646375609085093e-07</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0003058641981287375</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M6" t="n">
-        <v>0.004301689760508505</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000095153662327</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O6" t="n">
-        <v>0.004484821599338746</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P6" t="n">
-        <v>79.79498946365612</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q6" t="n">
-        <v>115.1423883848339</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_12_4_5</t>
+          <t>model_12_4_18</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9999771742017147</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9988714123164412</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9997804012941434</v>
+        <v>0.9999999000003338</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999963133670569</v>
+        <v>0.9999985920531838</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9999308882440103</v>
+        <v>0.9999990556541269</v>
       </c>
       <c r="G7" t="n">
-        <v>2.130688076260288e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H7" t="n">
-        <v>0.001053487063328368</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I7" t="n">
-        <v>0.000124816967336586</v>
+        <v>3.878798785116622e-08</v>
       </c>
       <c r="J7" t="n">
-        <v>3.259544962385121e-06</v>
+        <v>1.090487133965852e-06</v>
       </c>
       <c r="K7" t="n">
-        <v>6.403825614948556e-05</v>
+        <v>5.646375609085093e-07</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0003167194122267092</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M7" t="n">
-        <v>0.004615937690502644</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000109563831769</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O7" t="n">
-        <v>0.004812447714295629</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P7" t="n">
-        <v>79.51296099383491</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.8603599150127</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_12_4_6</t>
+          <t>model_12_4_17</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9999742167581065</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9988619296571725</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9997491175363188</v>
+        <v>0.9999999000003338</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999958702045469</v>
+        <v>0.9999985920531838</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9999210818062443</v>
+        <v>0.9999990556541269</v>
       </c>
       <c r="G8" t="n">
-        <v>2.406752455410989e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H8" t="n">
-        <v>0.001062338709515036</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0001425982368723656</v>
+        <v>3.878798785116622e-08</v>
       </c>
       <c r="J8" t="n">
-        <v>3.651368110760634e-06</v>
+        <v>1.090487133965852e-06</v>
       </c>
       <c r="K8" t="n">
-        <v>7.312480249156312e-05</v>
+        <v>5.646375609085093e-07</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0003264678416769411</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M8" t="n">
-        <v>0.004905866340832157</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000123759561089</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O8" t="n">
-        <v>0.005114719227504713</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P8" t="n">
-        <v>79.26929431015253</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q8" t="n">
-        <v>114.6166932313303</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_12_4_7</t>
+          <t>model_12_4_16</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9999713762113049</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9988533478256669</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9997193018504159</v>
+        <v>0.9999999000003338</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999954402470851</v>
+        <v>0.9999985920531838</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9999117319392352</v>
+        <v>0.9999990556541269</v>
       </c>
       <c r="G9" t="n">
-        <v>2.671905030768121e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H9" t="n">
-        <v>0.001070349472526579</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0001595450739629824</v>
+        <v>3.878798785116622e-08</v>
       </c>
       <c r="J9" t="n">
-        <v>4.031515985731307e-06</v>
+        <v>1.090487133965852e-06</v>
       </c>
       <c r="K9" t="n">
-        <v>8.178829497435685e-05</v>
+        <v>5.646375609085093e-07</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0003359272049306708</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M9" t="n">
-        <v>0.005169047330764269</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000137394185736</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O9" t="n">
-        <v>0.005389104377037989</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P9" t="n">
-        <v>79.06026750460936</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q9" t="n">
-        <v>114.4076664257872</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_12_4_8</t>
+          <t>model_12_4_15</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9999685483588343</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C10" t="n">
-        <v>0.998845035328052</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9996898451538627</v>
+        <v>0.9999999000003338</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999950162477153</v>
+        <v>0.9999985920531838</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9999024950200375</v>
+        <v>0.9999990556541269</v>
       </c>
       <c r="G10" t="n">
-        <v>2.93587264606355e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H10" t="n">
-        <v>0.001078108824173598</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0001762878663085623</v>
+        <v>3.878798785116622e-08</v>
       </c>
       <c r="J10" t="n">
-        <v>4.406395999855831e-06</v>
+        <v>1.090487133965852e-06</v>
       </c>
       <c r="K10" t="n">
-        <v>9.034713115420903e-05</v>
+        <v>5.646375609085093e-07</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0003448964075563533</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M10" t="n">
-        <v>0.005418369354393949</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000150967877595</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O10" t="n">
-        <v>0.005649040555381324</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P10" t="n">
-        <v>78.87184146368021</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q10" t="n">
-        <v>114.219240384858</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_12_4_9</t>
+          <t>model_12_4_14</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9999659561290338</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9988378584375533</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9996629200345147</v>
+        <v>0.9999999000003338</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999946354371345</v>
+        <v>0.9999985920531838</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9998940551633083</v>
+        <v>0.9999990556541269</v>
       </c>
       <c r="G11" t="n">
-        <v>3.177845919367451e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H11" t="n">
-        <v>0.001084808136425061</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0001915917440298752</v>
+        <v>3.878798785116622e-08</v>
       </c>
       <c r="J11" t="n">
-        <v>4.743090547228062e-06</v>
+        <v>1.090487133965852e-06</v>
       </c>
       <c r="K11" t="n">
-        <v>9.816741728855161e-05</v>
+        <v>5.646375609085093e-07</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0003522618457629242</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M11" t="n">
-        <v>0.005637238614221905</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000163410580638</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O11" t="n">
-        <v>0.005877227532721983</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P11" t="n">
-        <v>78.71344376310591</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q11" t="n">
-        <v>114.0608426842837</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_12_4_10</t>
+          <t>model_12_4_13</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9999634902159015</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9988311966039428</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9996374218035897</v>
+        <v>0.9999999000003338</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999942823839355</v>
+        <v>0.9999985920531838</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9998860661889133</v>
+        <v>0.9999990556541269</v>
       </c>
       <c r="G12" t="n">
-        <v>3.40802808617028e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H12" t="n">
-        <v>0.001091026665679784</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0002060845974558464</v>
+        <v>3.878798785116622e-08</v>
       </c>
       <c r="J12" t="n">
-        <v>5.055243341990857e-06</v>
+        <v>1.090487133965852e-06</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0001055699203989186</v>
+        <v>5.646375609085093e-07</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0003589534804439601</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M12" t="n">
-        <v>0.005837831863089481</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000175246963673</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O12" t="n">
-        <v>0.006086360451479121</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P12" t="n">
-        <v>78.57358322957994</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q12" t="n">
-        <v>113.9209821507578</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_12_4_11</t>
+          <t>model_12_4_23</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9999611671916134</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C13" t="n">
-        <v>0.998825117981965</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9996134755261381</v>
+        <v>0.9999999000003338</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999939585055315</v>
+        <v>0.9999985920531838</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9998785671316565</v>
+        <v>0.9999990556541269</v>
       </c>
       <c r="G13" t="n">
-        <v>3.62487220656294e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H13" t="n">
-        <v>0.001096700792475346</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0002196953412844911</v>
+        <v>3.878798785116622e-08</v>
       </c>
       <c r="J13" t="n">
-        <v>5.341601174805422e-06</v>
+        <v>1.090487133965852e-06</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0001125184712296483</v>
+        <v>5.646375609085093e-07</v>
       </c>
       <c r="L13" t="n">
-        <v>0.00036491652567907</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M13" t="n">
-        <v>0.006020691161787773</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000186397480256</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O13" t="n">
-        <v>0.006277004449093931</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P13" t="n">
-        <v>78.45021286129391</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q13" t="n">
-        <v>113.7976117824717</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="14">
@@ -1182,657 +1182,657 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999589562067912</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9988193817999557</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9995907525991167</v>
+        <v>0.9999999000003338</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999936600535343</v>
+        <v>0.9999985920531838</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9998714554177249</v>
+        <v>0.9999990556541269</v>
       </c>
       <c r="G14" t="n">
-        <v>3.831257934608779e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H14" t="n">
-        <v>0.001102055266591892</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0002326107490905391</v>
+        <v>3.878798785116622e-08</v>
       </c>
       <c r="J14" t="n">
-        <v>5.605478191921527e-06</v>
+        <v>1.090487133965852e-06</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0001191081136412303</v>
+        <v>5.646375609085093e-07</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0003704633494785694</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M14" t="n">
-        <v>0.006189715611083258</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000197010207402</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O14" t="n">
-        <v>0.006453224619124769</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P14" t="n">
-        <v>78.33946454649298</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q14" t="n">
-        <v>113.6868634676708</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_12_4_13</t>
+          <t>model_12_4_10</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999569264216783</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9988142589167153</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9995699419465658</v>
+        <v>0.9999999000003338</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999933852886955</v>
+        <v>0.9999985920531838</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9998649415164125</v>
+        <v>0.9999990556541269</v>
       </c>
       <c r="G15" t="n">
-        <v>4.020729465167666e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H15" t="n">
-        <v>0.001106837253228131</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0002444392456637087</v>
+        <v>3.878798785116622e-08</v>
       </c>
       <c r="J15" t="n">
-        <v>5.848412153513391e-06</v>
+        <v>1.090487133965852e-06</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0001251438289086111</v>
+        <v>5.646375609085093e-07</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0003752941285817893</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M15" t="n">
-        <v>0.006340922224067778</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000206753175944</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O15" t="n">
-        <v>0.00661086841066488</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P15" t="n">
-        <v>78.24292423960812</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q15" t="n">
-        <v>113.5903231607859</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_12_4_14</t>
+          <t>model_12_4_9</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999550652799843</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9988096747637728</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9995508959668408</v>
+        <v>0.9999999000003338</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999931349199118</v>
+        <v>0.9999985920531838</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9998589804952053</v>
+        <v>0.9999990556541269</v>
       </c>
       <c r="G16" t="n">
-        <v>4.194458872841564e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H16" t="n">
-        <v>0.001111116358778939</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0002552647258046574</v>
+        <v>3.878798785116622e-08</v>
       </c>
       <c r="J16" t="n">
-        <v>6.069776287190194e-06</v>
+        <v>1.090487133965852e-06</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0001306672510459238</v>
+        <v>5.646375609085093e-07</v>
       </c>
       <c r="L16" t="n">
-        <v>0.000379516693524653</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M16" t="n">
-        <v>0.006476464215018535</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000215686656075</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O16" t="n">
-        <v>0.006752180704781011</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P16" t="n">
-        <v>78.15832225346915</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q16" t="n">
-        <v>113.505721174647</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_12_4_15</t>
+          <t>model_12_4_8</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999533067901993</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9988053398110353</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9995329391270675</v>
+        <v>0.9999999000003338</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999929028164629</v>
+        <v>0.9999985920531838</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9998533622372358</v>
+        <v>0.9999990556541269</v>
       </c>
       <c r="G17" t="n">
-        <v>4.358606175390884e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H17" t="n">
-        <v>0.001115162846876992</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0002654711533639436</v>
+        <v>3.878798785116622e-08</v>
       </c>
       <c r="J17" t="n">
-        <v>6.27499108335963e-06</v>
+        <v>1.090487133965852e-06</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0001358730722236516</v>
+        <v>5.646375609085093e-07</v>
       </c>
       <c r="L17" t="n">
-        <v>0.000383488878230483</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M17" t="n">
-        <v>0.006601974080069449</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000224127407043</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O17" t="n">
-        <v>0.006883033784628382</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P17" t="n">
-        <v>78.08154628652531</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q17" t="n">
-        <v>113.4289452077031</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_12_4_16</t>
+          <t>model_12_4_7</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.999951734046973</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9988015745979919</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9995169048571861</v>
+        <v>0.9999999000003338</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999926916662933</v>
+        <v>0.9999985920531838</v>
       </c>
       <c r="F18" t="n">
-        <v>0.999848343645248</v>
+        <v>0.9999990556541269</v>
       </c>
       <c r="G18" t="n">
-        <v>4.505414852021712e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H18" t="n">
-        <v>0.001118677507979212</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0002745848179105685</v>
+        <v>3.878798785116622e-08</v>
       </c>
       <c r="J18" t="n">
-        <v>6.461679989455405e-06</v>
+        <v>1.090487133965852e-06</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0001405232489500119</v>
+        <v>5.646375609085093e-07</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0003868459459202951</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M18" t="n">
-        <v>0.006712238711504316</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N18" t="n">
-        <v>1.00023167657453</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O18" t="n">
-        <v>0.006997992609702685</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P18" t="n">
-        <v>78.01529098226086</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q18" t="n">
-        <v>113.3626899034387</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_12_4_17</t>
+          <t>model_12_4_6</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.999950300392951</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9987982501498429</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9995023124986188</v>
+        <v>0.9999999000003338</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999924973188501</v>
+        <v>0.9999985920531838</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9998437753167806</v>
+        <v>0.9999990556541269</v>
       </c>
       <c r="G19" t="n">
-        <v>4.639240161970817e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H19" t="n">
-        <v>0.001121780734399879</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0002828789193514875</v>
+        <v>3.878798785116622e-08</v>
       </c>
       <c r="J19" t="n">
-        <v>6.63351272669681e-06</v>
+        <v>1.090487133965852e-06</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0001447562160390922</v>
+        <v>5.646375609085093e-07</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0003898169555966784</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M19" t="n">
-        <v>0.006811196783217188</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000238558113835</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O19" t="n">
-        <v>0.007101163531399822</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P19" t="n">
-        <v>77.95674974067569</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q19" t="n">
-        <v>113.3041486618535</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_12_4_18</t>
+          <t>model_12_4_5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9999489284817937</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9987949969083817</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9994883524272717</v>
+        <v>0.9999999000003338</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999923252593548</v>
+        <v>0.9999985920531838</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9998394115499717</v>
+        <v>0.9999990556541269</v>
       </c>
       <c r="G20" t="n">
-        <v>4.767302046500412e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H20" t="n">
-        <v>0.001124817492503162</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0002908136371930349</v>
+        <v>3.878798785116622e-08</v>
       </c>
       <c r="J20" t="n">
-        <v>6.785639523582742e-06</v>
+        <v>1.090487133965852e-06</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0001487996383583088</v>
+        <v>5.646375609085093e-07</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0003926837487067682</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M20" t="n">
-        <v>0.006904565190148046</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N20" t="n">
-        <v>1.00024514328739</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O20" t="n">
-        <v>0.007198506824712974</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P20" t="n">
-        <v>77.90228985757409</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q20" t="n">
-        <v>113.2496887787519</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_12_4_19</t>
+          <t>model_12_4_4</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999476984830845</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9987921406517025</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9994758606103307</v>
+        <v>0.9999999000003338</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999921638593482</v>
+        <v>0.9999985920531838</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9998355031954027</v>
+        <v>0.9999990556541269</v>
       </c>
       <c r="G21" t="n">
-        <v>4.882117026939241e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H21" t="n">
-        <v>0.001127483682737993</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0002979138188677447</v>
+        <v>3.878798785116622e-08</v>
       </c>
       <c r="J21" t="n">
-        <v>6.928341709209766e-06</v>
+        <v>1.090487133965852e-06</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0001524210802884773</v>
+        <v>5.646375609085093e-07</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0003952024013049017</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M21" t="n">
-        <v>0.006987214771952585</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000251047281194</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O21" t="n">
-        <v>0.007284674970323152</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P21" t="n">
-        <v>77.85469304436162</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q21" t="n">
-        <v>113.2020919655394</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_12_4_20</t>
+          <t>model_12_4_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999465727923008</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9987895411121904</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D22" t="n">
-        <v>0.999464431474252</v>
+        <v>0.9999999000003338</v>
       </c>
       <c r="E22" t="n">
-        <v>0.999992021221796</v>
+        <v>0.9999985920531838</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9998319297260111</v>
+        <v>0.9999990556541269</v>
       </c>
       <c r="G22" t="n">
-        <v>4.987195320379864e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H22" t="n">
-        <v>0.001129910238765884</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0003044099869532829</v>
+        <v>3.878798785116622e-08</v>
       </c>
       <c r="J22" t="n">
-        <v>7.054455027715524e-06</v>
+        <v>1.090487133965852e-06</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0001557322209904992</v>
+        <v>5.646375609085093e-07</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0003974491898900292</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M22" t="n">
-        <v>0.007062007731785533</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000256450596956</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O22" t="n">
-        <v>0.00736265202129896</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P22" t="n">
-        <v>77.81210354653174</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q22" t="n">
-        <v>113.1595024677096</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_12_4_21</t>
+          <t>model_12_4_2</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999455658161287</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9987872298300903</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9994542195193697</v>
+        <v>0.9999999000003338</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999918915351836</v>
+        <v>0.9999985920531838</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9998287357557397</v>
+        <v>0.9999990556541269</v>
       </c>
       <c r="G23" t="n">
-        <v>5.081192125928772e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H23" t="n">
-        <v>0.001132067719152768</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0003102143255262399</v>
+        <v>3.878798785116622e-08</v>
       </c>
       <c r="J23" t="n">
-        <v>7.169117743098642e-06</v>
+        <v>1.090487133965852e-06</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0001586917216346693</v>
+        <v>5.646375609085093e-07</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0003994062388312723</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M23" t="n">
-        <v>0.00712824811993015</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000261284082582</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O23" t="n">
-        <v>0.0074317123999034</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P23" t="n">
-        <v>77.77475912090445</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q23" t="n">
-        <v>113.1221580420823</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_12_4_22</t>
+          <t>model_12_4_1</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999446308459823</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9987850739290911</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9994447452056845</v>
+        <v>0.9999999000003338</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999917721406484</v>
+        <v>0.9999985920531838</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9998257729368908</v>
+        <v>0.9999990556541269</v>
       </c>
       <c r="G24" t="n">
-        <v>5.168467485056452e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H24" t="n">
-        <v>0.001134080158102412</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0003155993987085958</v>
+        <v>3.878798785116622e-08</v>
       </c>
       <c r="J24" t="n">
-        <v>7.27468069501881e-06</v>
+        <v>1.090487133965852e-06</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0001614370397018073</v>
+        <v>5.646375609085093e-07</v>
       </c>
       <c r="L24" t="n">
-        <v>0.000401245756773957</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M24" t="n">
-        <v>0.007189205439446318</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000265771939285</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O24" t="n">
-        <v>0.007495264798710418</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P24" t="n">
-        <v>77.74069848989242</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q24" t="n">
-        <v>113.0880974110702</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_12_4_23</t>
+          <t>model_12_4_11</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999437759316123</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C25" t="n">
-        <v>0.998783133549057</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D25" t="n">
-        <v>0.99943608442225</v>
+        <v>0.9999999000003338</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999916656101953</v>
+        <v>0.9999985920531838</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9998230657724115</v>
+        <v>0.9999990556541269</v>
       </c>
       <c r="G25" t="n">
-        <v>5.248269988848409e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H25" t="n">
-        <v>0.001135891417691396</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0003205220721772172</v>
+        <v>3.878798785116622e-08</v>
       </c>
       <c r="J25" t="n">
-        <v>7.36886983918044e-06</v>
+        <v>1.090487133965852e-06</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0001639454710081988</v>
+        <v>5.646375609085093e-07</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0004028946664795713</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M25" t="n">
-        <v>0.007244494453616766</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N25" t="n">
-        <v>1.000269875528261</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O25" t="n">
-        <v>0.007552907580678139</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P25" t="n">
-        <v>77.71005393721187</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q25" t="n">
-        <v>113.0574528583897</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
     <row r="26">
@@ -1842,52 +1842,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999430080969255</v>
+        <v>0.9994384710386303</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9987813988174535</v>
+        <v>0.9988584094093185</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9994283123096532</v>
+        <v>0.9999999000003338</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999915684471327</v>
+        <v>0.9999985920531838</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9998206356403117</v>
+        <v>0.9999990556541269</v>
       </c>
       <c r="G26" t="n">
-        <v>5.319943986461593e-05</v>
+        <v>0.0005241626371659963</v>
       </c>
       <c r="H26" t="n">
-        <v>0.001137510713497329</v>
+        <v>0.001065624706365756</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0003249396370273064</v>
+        <v>3.878798785116622e-08</v>
       </c>
       <c r="J26" t="n">
-        <v>7.454776783602943e-06</v>
+        <v>1.090487133965852e-06</v>
       </c>
       <c r="K26" t="n">
-        <v>0.0001661972069054547</v>
+        <v>5.646375609085093e-07</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0004043497656757319</v>
+        <v>0.0009694867605113856</v>
       </c>
       <c r="M26" t="n">
-        <v>0.007293794613547597</v>
+        <v>0.02289459842770771</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000273561134758</v>
+        <v>1.002695339014575</v>
       </c>
       <c r="O26" t="n">
-        <v>0.007604306550482626</v>
+        <v>0.02386926888112749</v>
       </c>
       <c r="P26" t="n">
-        <v>77.68292538106542</v>
+        <v>73.107417091058</v>
       </c>
       <c r="Q26" t="n">
-        <v>113.0303243022432</v>
+        <v>108.4548160122358</v>
       </c>
     </row>
   </sheetData>
